--- a/Documentação/13. Prioridade x Risco.xlsx
+++ b/Documentação/13. Prioridade x Risco.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicAc\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1901288\Desktop\EngenhariaDeSoftware\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B79A8963-CCA5-4A09-A668-BDAE3334AC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E2ECFF0-39A6-4D96-98F9-A4607641B7F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="1" r:id="rId1"/>
     <sheet name="Aux" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,9 +50,6 @@
     <t>Controle de Estoque da Mercearia</t>
   </si>
   <si>
-    <t>Cadatro de produto</t>
-  </si>
-  <si>
     <t>Entrada de produto</t>
   </si>
   <si>
@@ -127,12 +123,15 @@
   </si>
   <si>
     <t>Alto</t>
+  </si>
+  <si>
+    <t>Cadastro de produto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,15 +228,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6224C27A-0D5B-4200-97CE-C7BE3E828AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -587,240 +586,240 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>28</v>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" hidden="1" x14ac:dyDescent="0.25"/>
@@ -842,19 +841,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{646AA4EC-ADF2-450D-8DB1-202B56E02013}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Aux!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94D5B10A-5458-46FA-B2CD-51E5FD8F9CEA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Aux!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2EE64161-8407-4E6E-9604-012F4B07A6DF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Aux!$C$2:$C$4</xm:f>
           </x14:formula1>
@@ -867,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1473EC-2ACC-4441-A325-A2BDFDC2E929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -879,7 +878,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -890,40 +889,40 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/13. Prioridade x Risco.xlsx
+++ b/Documentação/13. Prioridade x Risco.xlsx
@@ -1,36 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1901288\Desktop\EngenhariaDeSoftware\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iago\Desktop\FIX\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C007A082-AAF7-48A3-B16A-37DD53CD935C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="1" r:id="rId1"/>
     <sheet name="Aux" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planejamento!$A$1:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t xml:space="preserve">Caracteristicas </t>
   </si>
@@ -131,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,23 +551,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" hidden="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="16384" max="16384" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -584,8 +584,11 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -601,8 +604,11 @@
       <c r="E2" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -616,8 +622,11 @@
       <c r="E3" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -631,8 +640,11 @@
       <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -648,8 +660,11 @@
       <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -663,8 +678,11 @@
       <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -680,8 +698,11 @@
       <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -695,8 +716,11 @@
       <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -712,8 +736,11 @@
       <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -729,8 +756,11 @@
       <c r="E10" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
         <v>17</v>
@@ -744,8 +774,11 @@
       <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -759,8 +792,11 @@
       <c r="E12" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
@@ -774,8 +810,11 @@
       <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>20</v>
@@ -789,8 +828,11 @@
       <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -806,8 +848,11 @@
       <c r="E15" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="5" t="s">
         <v>23</v>
@@ -820,6 +865,9 @@
       </c>
       <c r="E16" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" hidden="1" x14ac:dyDescent="0.25"/>
@@ -829,6 +877,7 @@
     <row r="21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="22" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:F16" xr:uid="{65136A91-ABD4-4E63-8CDE-2F89BDC92D48}"/>
   <mergeCells count="5">
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:A4"/>
@@ -841,19 +890,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Aux!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Aux!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Aux!$C$2:$C$4</xm:f>
           </x14:formula1>
@@ -866,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
